--- a/website_ban_hang_dien_tu.xlsx
+++ b/website_ban_hang_dien_tu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>StuDent</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Stt</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +154,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -161,142 +194,80 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -304,77 +275,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,678 +632,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
     <col min="12" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="95.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="96.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="20"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="22">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="16" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" s="7" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="22">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="11">
         <v>3</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="16" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="22">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="11">
         <v>3</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="19" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="22">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="11">
         <v>3</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="19" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="22">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="13">
         <v>4</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="19" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="22">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="14">
         <v>1</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="19" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="22">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11">
         <v>3</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="16" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
-    </row>
-    <row r="11" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="22">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="13">
         <v>4</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="16" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18"/>
-    </row>
-    <row r="12" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="22">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="15">
         <v>5</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="16" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="18"/>
-    </row>
-    <row r="13" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="22">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="15">
         <v>5</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="16" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="18"/>
-    </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="22">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="15">
         <v>5</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="16" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="18"/>
-    </row>
-    <row r="15" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="22">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8">
         <v>2</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="16" t="s">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="18"/>
-    </row>
-    <row r="16" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="22">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="15">
         <v>5</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="16" t="s">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="18"/>
-    </row>
-    <row r="17" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="22">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="14">
         <v>1</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="16" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="18"/>
-    </row>
-    <row r="18" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="22">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="11">
         <v>3</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="16" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="18"/>
-    </row>
-    <row r="19" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="22">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="11">
         <v>3</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="16" t="s">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="18"/>
-    </row>
-    <row r="20" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="22">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="11">
         <v>3</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="16" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="18"/>
-    </row>
-    <row r="21" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="22">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="11">
         <v>3</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="16" t="s">
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="18"/>
-    </row>
-    <row r="22" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="22">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="13">
         <v>4</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="16" t="s">
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="18"/>
-    </row>
-    <row r="23" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="22">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="15">
         <v>5</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="16" t="s">
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="18"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="A1:Q1"/>
+  <mergeCells count="67">
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:Q3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:Q21"/>
     <mergeCell ref="L6:Q6"/>
     <mergeCell ref="L7:Q7"/>
     <mergeCell ref="L8:Q8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:Q13"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="H8:K8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q11"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:Q5"/>
@@ -1356,13 +1362,12 @@
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:Q3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:Q23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
